--- a/Measurement_Results/DLS/Data to use.xlsx
+++ b/Measurement_Results/DLS/Data to use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>NO PEG</t>
   </si>
@@ -399,7 +399,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,7 +914,9 @@
       <c r="M23" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1075,9 +1077,73 @@
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B28">
+        <v>23.64</v>
+      </c>
+      <c r="C28">
+        <v>26.91</v>
+      </c>
+      <c r="D28">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="E28">
+        <v>31.87</v>
+      </c>
+      <c r="F28">
+        <v>17.5</v>
+      </c>
+      <c r="K28">
+        <v>62.25</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGE(B28:F28)</f>
+        <v>26.46</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
+      <c r="B29">
+        <v>184.81</v>
+      </c>
+      <c r="C29">
+        <v>172.19</v>
+      </c>
+      <c r="D29">
+        <v>174.69</v>
+      </c>
+      <c r="E29">
+        <v>141.63999999999999</v>
+      </c>
+      <c r="F29">
+        <v>82.25</v>
+      </c>
+      <c r="G29">
+        <v>79.62</v>
+      </c>
+      <c r="H29">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="I29">
+        <v>117.8</v>
+      </c>
+      <c r="J29">
+        <v>92.42</v>
+      </c>
+      <c r="K29">
+        <v>166.52</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGE(B29:K29)</f>
+        <v>129.30900000000003</v>
+      </c>
+      <c r="M29">
+        <f>STDEV(B29:K29)</f>
+        <v>43.47589279640426</v>
+      </c>
+      <c r="N29">
+        <f>M29/SQRT(10)</f>
+        <v>13.748284454594454</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">

--- a/Measurement_Results/DLS/Data to use.xlsx
+++ b/Measurement_Results/DLS/Data to use.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>NO PEG</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>sigma</t>
-  </si>
-  <si>
-    <t>Variatie 20k PEG concentratie</t>
   </si>
   <si>
     <t>Concentration</t>
@@ -76,12 +73,21 @@
   <si>
     <t>sigma_m</t>
   </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>Variatie 20k PEG concentratie voor 2.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,16 +95,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -106,11 +132,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -119,6 +225,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="J46" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -454,7 +576,7 @@
       <c r="K3">
         <v>45.56</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <f>AVERAGE(B3:K3)</f>
         <v>50.753000000000007</v>
       </c>
@@ -551,7 +673,7 @@
       <c r="K6">
         <v>26.97</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <f t="shared" si="0"/>
         <v>30.388888888888889</v>
       </c>
@@ -627,7 +749,7 @@
       <c r="K8">
         <v>28.6</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <f t="shared" si="0"/>
         <v>28.367999999999995</v>
       </c>
@@ -714,7 +836,7 @@
       <c r="K14">
         <v>73.53</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <f t="shared" si="0"/>
         <v>76.138999999999996</v>
       </c>
@@ -722,7 +844,7 @@
         <f t="shared" si="1"/>
         <v>2.0785542518245155</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="18">
         <f>M14/SQRT(10)</f>
         <v>0.65729656759926647</v>
       </c>
@@ -796,7 +918,7 @@
       <c r="K16">
         <v>64.819999999999993</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <f t="shared" si="0"/>
         <v>61.867000000000004</v>
       </c>
@@ -804,8 +926,8 @@
         <f t="shared" si="1"/>
         <v>9.2145670302816978</v>
       </c>
-      <c r="N16">
-        <f t="shared" ref="N15:N19" si="2">M16/SQRT(10)</f>
+      <c r="N16" s="18">
+        <f t="shared" ref="N16" si="2">M16/SQRT(10)</f>
         <v>2.9139019467983895</v>
       </c>
     </row>
@@ -863,7 +985,7 @@
       <c r="J18">
         <v>80.02</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -871,7 +993,7 @@
         <f t="shared" si="1"/>
         <v>14.140289070595429</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="18">
         <f>M18/SQRT(9)</f>
         <v>4.7134296901984767</v>
       </c>
@@ -901,12 +1023,12 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>4</v>
@@ -915,12 +1037,12 @@
         <v>6</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>50.97</v>
@@ -937,7 +1059,7 @@
       <c r="F24">
         <v>50.66</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="6">
         <f>AVERAGE(B24:F24)</f>
         <v>51.931999999999995</v>
       </c>
@@ -945,14 +1067,14 @@
         <f>STDEV(B24:K24)</f>
         <v>3.0815531798104665</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="18">
         <f>M24/SQRT(5)</f>
         <v>1.378112477267367</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>72.5</v>
@@ -996,7 +1118,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>56.03</v>
@@ -1028,7 +1150,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>95.44</v>
@@ -1075,7 +1197,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>23.64</v>
@@ -1147,12 +1269,12 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>63.97</v>
@@ -1178,7 +1300,7 @@
       <c r="I31">
         <v>60.35</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="6">
         <f>AVERAGE(B31:I31)</f>
         <v>68.703749999999999</v>
       </c>
@@ -1186,14 +1308,14 @@
         <f>STDEV(B31:K31)</f>
         <v>8.5456353730176531</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="18">
         <f>M31/SQRT(8)</f>
         <v>3.0213383609042066</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>57.6</v>
@@ -1225,7 +1347,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>64.17</v>
@@ -1269,7 +1391,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>72.09</v>
@@ -1295,7 +1417,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>60.77</v>
@@ -1338,21 +1460,701 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>15</v>
+      <c r="A38" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
+      <c r="B40">
+        <v>66.72</v>
+      </c>
+      <c r="C40">
+        <v>79.27</v>
+      </c>
+      <c r="D40">
+        <v>65.55</v>
+      </c>
+      <c r="E40">
+        <v>72.510000000000005</v>
+      </c>
+      <c r="F40">
+        <v>71.36</v>
+      </c>
+      <c r="G40">
+        <v>77.64</v>
+      </c>
+      <c r="H40">
+        <v>73.64</v>
+      </c>
+      <c r="I40">
+        <v>65.75</v>
+      </c>
+      <c r="L40" s="6">
+        <f>AVERAGE(B40:I40)</f>
+        <v>71.555000000000007</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M40:M53" si="3">STDEV(B40:K40)</f>
+        <v>5.2777294901717511</v>
+      </c>
+      <c r="N40" s="18">
+        <f>M40/SQRT(8)</f>
+        <v>1.8659591558843325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>8.23</v>
+      </c>
+      <c r="C41">
+        <v>13.45</v>
+      </c>
+      <c r="D41">
+        <v>8.26</v>
+      </c>
+      <c r="E41">
+        <v>13.98</v>
+      </c>
+      <c r="F41">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="G41">
+        <v>15.91</v>
+      </c>
+      <c r="H41">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="I41">
+        <v>7.64</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ref="L41:L53" si="4">AVERAGE(B41:I41)</f>
+        <v>10.73625</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>3.1945888959748379</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:N43" si="5">M41/SQRT(8)</f>
+        <v>1.1294577357235269</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
+      <c r="B42">
+        <v>54.63</v>
+      </c>
+      <c r="C42">
+        <v>54.41</v>
+      </c>
+      <c r="D42">
+        <v>52.38</v>
+      </c>
+      <c r="E42">
+        <v>56.95</v>
+      </c>
+      <c r="F42">
+        <v>49.17</v>
+      </c>
+      <c r="H42" s="6">
+        <v>39.74</v>
+      </c>
+      <c r="I42" s="6">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="J42" s="6">
+        <v>149.13</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6">
+        <f>AVERAGE(B42:F42)</f>
+        <v>53.508000000000003</v>
+      </c>
+      <c r="M42">
+        <f>STDEV(B42:F42)</f>
+        <v>2.9159252390965031</v>
+      </c>
+      <c r="N42" s="18">
+        <f>M42/SQRT(5)</f>
+        <v>1.3040414103854217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C43">
+        <v>7.03</v>
+      </c>
+      <c r="D43">
+        <v>6.04</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>3.91</v>
+      </c>
+      <c r="H43" s="6">
+        <v>382.85</v>
+      </c>
+      <c r="I43" s="6">
+        <v>492.11</v>
+      </c>
+      <c r="J43" s="6">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>129.22714285714287</v>
+      </c>
+      <c r="M43">
+        <f>STDEV(B43:F43)</f>
+        <v>1.6752402812731091</v>
+      </c>
+      <c r="N43">
+        <f>M43/SQRT(5)</f>
+        <v>0.74919022951450798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6">
+        <v>29.64</v>
+      </c>
+      <c r="C44">
+        <v>34.36</v>
+      </c>
+      <c r="D44">
+        <v>54.37</v>
+      </c>
+      <c r="E44">
+        <v>52.93</v>
+      </c>
+      <c r="F44">
+        <v>54.79</v>
+      </c>
+      <c r="G44" s="6">
+        <v>31.66</v>
+      </c>
+      <c r="L44" s="6">
+        <f>AVERAGE(C44:F44)</f>
+        <v>49.112499999999997</v>
+      </c>
+      <c r="M44">
+        <f>STDEV(C44:F44)</f>
+        <v>9.8671994507053604</v>
+      </c>
+      <c r="N44" s="18">
+        <f>M44/SQRT(4)</f>
+        <v>4.9335997253526802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="6">
+        <v>110.18</v>
+      </c>
+      <c r="C45">
+        <v>203.24</v>
+      </c>
+      <c r="G45" s="6">
+        <v>77.02</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>130.14666666666668</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>65.436021680213202</v>
+      </c>
+      <c r="N45">
+        <f>M45/SQRT(6)</f>
+        <v>26.71414398570332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>71.37</v>
+      </c>
+      <c r="C49">
+        <v>60.7</v>
+      </c>
+      <c r="D49">
+        <v>78.28</v>
+      </c>
+      <c r="E49">
+        <v>67.05</v>
+      </c>
+      <c r="F49">
+        <v>74.38</v>
+      </c>
+      <c r="G49">
+        <v>62.44</v>
+      </c>
+      <c r="H49">
+        <v>60.62</v>
+      </c>
+      <c r="I49">
+        <v>85.47</v>
+      </c>
+      <c r="J49">
+        <v>59.26</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="4"/>
+        <v>70.038749999999993</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>9.1687750605580973</v>
+      </c>
+      <c r="N49" s="18">
+        <f>M49/SQRT(9)</f>
+        <v>3.0562583535193659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>10.5</v>
+      </c>
+      <c r="C50">
+        <v>6.72</v>
+      </c>
+      <c r="D50">
+        <v>10.35</v>
+      </c>
+      <c r="E50">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F50">
+        <v>12.38</v>
+      </c>
+      <c r="G50">
+        <v>8.33</v>
+      </c>
+      <c r="H50">
+        <v>7.6</v>
+      </c>
+      <c r="I50">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="J50">
+        <v>5.29</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>10.665000000000001</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>4.3167545036108308</v>
+      </c>
+      <c r="N50">
+        <f t="shared" ref="N50" si="6">M50/SQRT(9)</f>
+        <v>1.4389181678702769</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="C51">
+        <v>45.52</v>
+      </c>
+      <c r="D51">
+        <v>42.45</v>
+      </c>
+      <c r="E51">
+        <v>48.41</v>
+      </c>
+      <c r="F51">
+        <v>45.27</v>
+      </c>
+      <c r="G51">
+        <v>49.14</v>
+      </c>
+      <c r="H51">
+        <v>48.42</v>
+      </c>
+      <c r="I51">
+        <v>40.43</v>
+      </c>
+      <c r="J51">
+        <v>49.37</v>
+      </c>
+      <c r="K51" s="6">
+        <v>28.2</v>
+      </c>
+      <c r="L51" s="6">
+        <f>AVERAGE(B51:J51)</f>
+        <v>45.407777777777788</v>
+      </c>
+      <c r="M51">
+        <f>STDEV(B51:J51)</f>
+        <v>3.7800587884905239</v>
+      </c>
+      <c r="N51" s="18">
+        <f>M51/SQRT(9)</f>
+        <v>1.2600195961635079</v>
+      </c>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>5.93</v>
+      </c>
+      <c r="D52">
+        <v>6.13</v>
+      </c>
+      <c r="E52">
+        <v>12.67</v>
+      </c>
+      <c r="F52">
+        <v>8.01</v>
+      </c>
+      <c r="G52">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="H52">
+        <v>8.76</v>
+      </c>
+      <c r="I52">
+        <v>3.42</v>
+      </c>
+      <c r="J52">
+        <v>10.69</v>
+      </c>
+      <c r="K52" s="6">
+        <v>130.65</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>7.8514285714285705</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>40.90972361323297</v>
+      </c>
+      <c r="N52">
+        <f>M52/SQRT(10)</f>
+        <v>12.936790506578944</v>
+      </c>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>39.82</v>
+      </c>
+      <c r="C53">
+        <v>45.98</v>
+      </c>
+      <c r="D53">
+        <v>40.79</v>
+      </c>
+      <c r="E53">
+        <v>36.61</v>
+      </c>
+      <c r="F53">
+        <v>40.61</v>
+      </c>
+      <c r="G53">
+        <v>41.79</v>
+      </c>
+      <c r="H53">
+        <v>36.24</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="4"/>
+        <v>40.262857142857136</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>3.2949239459392383</v>
+      </c>
+      <c r="N53" s="18">
+        <f>M53/SQRT(10)</f>
+        <v>1.0419464386197497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="12"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="11">
+        <v>109.96</v>
+      </c>
+      <c r="C58" s="11">
+        <v>107.02</v>
+      </c>
+      <c r="D58" s="11">
+        <v>110.2</v>
+      </c>
+      <c r="E58" s="11">
+        <v>109.35</v>
+      </c>
+      <c r="F58" s="11">
+        <v>111.17</v>
+      </c>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="13">
+        <f>AVERAGE(B58:F58)</f>
+        <v>109.53999999999999</v>
+      </c>
+      <c r="M58" s="11">
+        <f>STDEV(B58:F58)</f>
+        <v>1.5536569762981811</v>
+      </c>
+      <c r="N58" s="19">
+        <f>M58/SQRT(5)</f>
+        <v>0.69481652254390247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="12"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="11">
+        <v>62.6</v>
+      </c>
+      <c r="C60" s="11">
+        <v>126.94</v>
+      </c>
+      <c r="D60" s="11">
+        <v>80.13</v>
+      </c>
+      <c r="E60" s="11">
+        <v>51.39</v>
+      </c>
+      <c r="F60" s="11">
+        <v>176.98</v>
+      </c>
+      <c r="G60" s="11">
+        <v>276.27999999999997</v>
+      </c>
+      <c r="H60" s="11">
+        <v>135.16999999999999</v>
+      </c>
+      <c r="I60" s="11">
+        <v>192.73</v>
+      </c>
+      <c r="J60" s="11">
+        <v>109.53</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="13">
+        <f t="shared" ref="L60:L63" si="7">AVERAGE(B60:F60)</f>
+        <v>99.60799999999999</v>
+      </c>
+      <c r="M60" s="11">
+        <f t="shared" ref="M60:M63" si="8">STDEV(B60:F60)</f>
+        <v>51.97938216254596</v>
+      </c>
+      <c r="N60" s="19">
+        <f>M60/SQRT(9)</f>
+        <v>17.326460720848655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="C61" s="11">
+        <v>27.2</v>
+      </c>
+      <c r="D61" s="11">
+        <v>25.52</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11">
+        <v>30.97</v>
+      </c>
+      <c r="G61" s="11">
+        <v>35.44</v>
+      </c>
+      <c r="H61" s="11">
+        <v>27.84</v>
+      </c>
+      <c r="I61" s="11">
+        <v>28.64</v>
+      </c>
+      <c r="J61" s="11">
+        <v>25.05</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11">
+        <f t="shared" si="7"/>
+        <v>25.384999999999998</v>
+      </c>
+      <c r="M61" s="11">
+        <f t="shared" si="8"/>
+        <v>5.5160644182847189</v>
+      </c>
+      <c r="N61" s="12">
+        <f t="shared" ref="N61" si="9">M61/SQRT(9)</f>
+        <v>1.8386881394282397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="11">
+        <v>177.53</v>
+      </c>
+      <c r="C62" s="11">
+        <v>93.92</v>
+      </c>
+      <c r="D62" s="13">
+        <v>47.62</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11">
+        <f>AVERAGE(B62:C62)</f>
+        <v>135.72499999999999</v>
+      </c>
+      <c r="M62" s="11">
+        <f t="shared" si="8"/>
+        <v>65.841894211309992</v>
+      </c>
+      <c r="N62" s="12">
+        <f>M62/SQRT(3)</f>
+        <v>38.013835346854691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15">
+        <v>22.21</v>
+      </c>
+      <c r="C63" s="15">
+        <v>21.01</v>
+      </c>
+      <c r="D63" s="16">
+        <v>14.75</v>
+      </c>
+      <c r="E63" s="15">
+        <v>33.9</v>
+      </c>
+      <c r="F63" s="15">
+        <v>31.84</v>
+      </c>
+      <c r="G63" s="15">
+        <v>32.409999999999997</v>
+      </c>
+      <c r="H63" s="15">
+        <v>32.44</v>
+      </c>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15">
+        <f t="shared" si="7"/>
+        <v>24.742000000000001</v>
+      </c>
+      <c r="M63" s="15">
+        <f t="shared" si="8"/>
+        <v>7.975422872801162</v>
+      </c>
+      <c r="N63" s="17">
+        <f>M63/SQRT(7)</f>
+        <v>3.014426503144028</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="D42:D43">
+    <sortCondition descending="1" ref="D42"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Measurement_Results/DLS/Data to use.xlsx
+++ b/Measurement_Results/DLS/Data to use.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J46" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,6 +667,9 @@
       <c r="H6">
         <v>28.49</v>
       </c>
+      <c r="I6">
+        <v>26.8</v>
+      </c>
       <c r="J6">
         <v>24.87</v>
       </c>
@@ -675,15 +678,15 @@
       </c>
       <c r="L6" s="6">
         <f t="shared" si="0"/>
-        <v>30.388888888888889</v>
+        <v>30.030000000000008</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>3.7775734421862786</v>
+        <v>3.7379822245578809</v>
       </c>
       <c r="N6">
         <f>M6/SQRT(9)</f>
-        <v>1.2591911473954263</v>
+        <v>1.245994074852627</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -904,31 +907,31 @@
         <v>66.989999999999995</v>
       </c>
       <c r="G16">
-        <v>37.83</v>
+        <v>56.78</v>
       </c>
       <c r="H16">
-        <v>69.489999999999995</v>
+        <v>52.41</v>
       </c>
       <c r="I16">
-        <v>67.680000000000007</v>
+        <v>64.36</v>
       </c>
       <c r="J16">
-        <v>65.989999999999995</v>
+        <v>65.53</v>
       </c>
       <c r="K16">
-        <v>64.819999999999993</v>
+        <v>60.91</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="0"/>
-        <v>61.867000000000004</v>
+        <v>61.284999999999989</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>9.2145670302816978</v>
+        <v>4.7287542404598142</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" ref="N16" si="2">M16/SQRT(10)</f>
-        <v>2.9139019467983895</v>
+        <v>1.4953633895032563</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1539,7 +1542,7 @@
         <v>3.1945888959748379</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41:N43" si="5">M41/SQRT(8)</f>
+        <f t="shared" ref="N41" si="5">M41/SQRT(8)</f>
         <v>1.1294577357235269</v>
       </c>
     </row>
@@ -1551,38 +1554,29 @@
         <v>54.63</v>
       </c>
       <c r="C42">
-        <v>54.41</v>
-      </c>
-      <c r="D42">
+        <v>56.95</v>
+      </c>
+      <c r="E42">
         <v>52.38</v>
-      </c>
-      <c r="E42">
-        <v>56.95</v>
       </c>
       <c r="F42">
         <v>49.17</v>
       </c>
-      <c r="H42" s="6">
-        <v>39.74</v>
-      </c>
-      <c r="I42" s="6">
-        <v>40.729999999999997</v>
-      </c>
-      <c r="J42" s="6">
-        <v>149.13</v>
-      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6">
         <f>AVERAGE(B42:F42)</f>
-        <v>53.508000000000003</v>
+        <v>53.282499999999999</v>
       </c>
       <c r="M42">
         <f>STDEV(B42:F42)</f>
-        <v>2.9159252390965031</v>
+        <v>3.3162968805581929</v>
       </c>
       <c r="N42" s="18">
-        <f>M42/SQRT(5)</f>
-        <v>1.3040414103854217</v>
+        <f>M42/SQRT(4)</f>
+        <v>1.6581484402790965</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -1592,48 +1586,34 @@
       <c r="C43">
         <v>7.03</v>
       </c>
-      <c r="D43">
-        <v>6.04</v>
-      </c>
       <c r="E43">
         <v>8</v>
       </c>
       <c r="F43">
         <v>3.91</v>
       </c>
-      <c r="H43" s="6">
-        <v>382.85</v>
-      </c>
-      <c r="I43" s="6">
-        <v>492.11</v>
-      </c>
-      <c r="J43" s="6">
-        <v>32.659999999999997</v>
-      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43">
         <f t="shared" si="4"/>
-        <v>129.22714285714287</v>
+        <v>5.8975</v>
       </c>
       <c r="M43">
         <f>STDEV(B43:F43)</f>
-        <v>1.6752402812731091</v>
+        <v>1.9330006897739782</v>
       </c>
       <c r="N43">
-        <f>M43/SQRT(5)</f>
-        <v>0.74919022951450798</v>
+        <f>M43/SQRT(4)</f>
+        <v>0.9665003448869891</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="6">
-        <v>29.64</v>
-      </c>
-      <c r="C44">
-        <v>34.36</v>
-      </c>
+      <c r="B44" s="6"/>
       <c r="D44">
         <v>54.37</v>
       </c>
@@ -1643,43 +1623,34 @@
       <c r="F44">
         <v>54.79</v>
       </c>
-      <c r="G44" s="6">
-        <v>31.66</v>
-      </c>
+      <c r="G44" s="6"/>
       <c r="L44" s="6">
         <f>AVERAGE(C44:F44)</f>
-        <v>49.112499999999997</v>
+        <v>54.03</v>
       </c>
       <c r="M44">
         <f>STDEV(C44:F44)</f>
-        <v>9.8671994507053604</v>
+        <v>0.9754998718605753</v>
       </c>
       <c r="N44" s="18">
-        <f>M44/SQRT(4)</f>
-        <v>4.9335997253526802</v>
+        <f>M44/SQRT(3)</f>
+        <v>0.56320511361314862</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="6">
-        <v>110.18</v>
-      </c>
-      <c r="C45">
-        <v>203.24</v>
-      </c>
-      <c r="G45" s="6">
-        <v>77.02</v>
-      </c>
-      <c r="L45">
+      <c r="B45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="L45" t="e">
         <f t="shared" si="4"/>
-        <v>130.14666666666668</v>
-      </c>
-      <c r="M45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" t="e">
         <f t="shared" si="3"/>
-        <v>65.436021680213202</v>
-      </c>
-      <c r="N45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" t="e">
         <f>M45/SQRT(6)</f>
-        <v>26.71414398570332</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -1785,9 +1756,6 @@
       <c r="D51">
         <v>42.45</v>
       </c>
-      <c r="E51">
-        <v>48.41</v>
-      </c>
       <c r="F51">
         <v>45.27</v>
       </c>
@@ -1804,15 +1772,15 @@
         <v>49.37</v>
       </c>
       <c r="K51" s="6">
-        <v>28.2</v>
+        <v>48.41</v>
       </c>
       <c r="L51" s="6">
-        <f>AVERAGE(B51:J51)</f>
+        <f>AVERAGE(B51:K51)</f>
         <v>45.407777777777788</v>
       </c>
       <c r="M51">
-        <f>STDEV(B51:J51)</f>
-        <v>3.7800587884905239</v>
+        <f>STDEV(B51:K51)</f>
+        <v>3.7800587884905235</v>
       </c>
       <c r="N51" s="18">
         <f>M51/SQRT(9)</f>
@@ -1845,20 +1813,18 @@
       <c r="J52">
         <v>10.69</v>
       </c>
-      <c r="K52" s="6">
-        <v>130.65</v>
-      </c>
+      <c r="K52" s="6"/>
       <c r="L52">
         <f t="shared" si="4"/>
         <v>7.8514285714285705</v>
       </c>
       <c r="M52">
         <f t="shared" si="3"/>
-        <v>40.90972361323297</v>
+        <v>2.9809439420616903</v>
       </c>
       <c r="N52">
-        <f>M52/SQRT(10)</f>
-        <v>12.936790506578944</v>
+        <f>M52/SQRT(8)</f>
+        <v>1.0539228378843899</v>
       </c>
       <c r="O52" s="6"/>
     </row>
@@ -1896,8 +1862,8 @@
         <v>3.2949239459392383</v>
       </c>
       <c r="N53" s="18">
-        <f>M53/SQRT(10)</f>
-        <v>1.0419464386197497</v>
+        <f>M53/SQRT(7)</f>
+        <v>1.2453641928324077</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
